--- a/70%_Courswork/Q2/GraphData.xlsx
+++ b/70%_Courswork/Q2/GraphData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bensw\Work Docs\Comp3001\Comp3001-ParallelComputing\70%_Courswork\Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C98FAD-FD27-42ED-B7B4-212F818AE6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E9884D-6A51-4967-A38E-9909FB5C7FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{76367C0C-1F62-41B7-B9D1-999A0F27DA4C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{76367C0C-1F62-41B7-B9D1-999A0F27DA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -201,30 +201,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.9569559999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2.3151963333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.8563070000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0.77478266666666673</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0.44097366666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0.17735999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2AAC-430E-94D3-FDDD3C06AC82}"/>
@@ -306,30 +306,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.394015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>3.1443660000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>3.0759240000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>2.7655103333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>1.2300633333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>0.45817000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>0.40314299999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2AAC-430E-94D3-FDDD3C06AC82}"/>
@@ -410,31 +410,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2AAC-430E-94D3-FDDD3C06AC82}"/>
@@ -515,31 +494,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2AAC-430E-94D3-FDDD3C06AC82}"/>
@@ -748,7 +706,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>FLOPS</a:t>
+                  <a:t>FLOPS(2N^3/nseconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1802,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CA7126-F057-41FD-971E-988FFAE2A47A}">
   <dimension ref="B1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,120 +1801,205 @@
       <c r="B3" s="1">
         <v>64</v>
       </c>
+      <c r="C3">
+        <v>2.8402099999999999</v>
+      </c>
+      <c r="D3">
+        <v>3.0388009999999999</v>
+      </c>
+      <c r="E3">
+        <v>2.991857</v>
+      </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <f>AVERAGE(C3:E3)</f>
+        <v>2.9569559999999999</v>
+      </c>
+      <c r="G3">
+        <v>3.3955929999999999</v>
+      </c>
+      <c r="H3">
+        <v>3.379051</v>
+      </c>
+      <c r="I3">
+        <v>3.4074010000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
+        <f>AVERAGE(G3:I3)</f>
+        <v>3.394015</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>128</v>
       </c>
+      <c r="C4">
+        <v>2.302835</v>
+      </c>
+      <c r="D4">
+        <v>2.3327840000000002</v>
+      </c>
+      <c r="E4">
+        <v>2.3099699999999999</v>
+      </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <f t="shared" ref="F4:F9" si="0">AVERAGE(C4:E4)</f>
+        <v>2.3151963333333332</v>
+      </c>
+      <c r="G4">
+        <v>3.1867740000000002</v>
+      </c>
+      <c r="H4">
+        <v>3.1797970000000002</v>
+      </c>
+      <c r="I4">
+        <v>3.0665269999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="N4" s="1">
-        <v>100</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1000</v>
-      </c>
+        <f t="shared" ref="J4:J9" si="1">AVERAGE(G4:I4)</f>
+        <v>3.1443660000000002</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>256</v>
       </c>
+      <c r="C5">
+        <v>1.856484</v>
+      </c>
+      <c r="D5">
+        <v>1.852959</v>
+      </c>
+      <c r="E5">
+        <v>1.859478</v>
+      </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1.8563070000000002</v>
+      </c>
+      <c r="G5">
+        <v>3.0457830000000001</v>
+      </c>
+      <c r="H5">
+        <v>3.0930620000000002</v>
+      </c>
+      <c r="I5">
+        <v>3.088927</v>
       </c>
       <c r="J5" s="1">
-        <v>20</v>
-      </c>
-      <c r="N5" s="1">
-        <v>200</v>
-      </c>
-      <c r="R5" s="1">
-        <v>2000</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>3.0759240000000001</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>512</v>
       </c>
+      <c r="C6">
+        <v>0.79907600000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.755548</v>
+      </c>
+      <c r="E6">
+        <v>0.76972399999999996</v>
+      </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0.77478266666666673</v>
+      </c>
+      <c r="G6">
+        <v>2.7539479999999998</v>
+      </c>
+      <c r="H6">
+        <v>2.7733050000000001</v>
+      </c>
+      <c r="I6">
+        <v>2.7692779999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>30</v>
-      </c>
-      <c r="N6" s="1">
-        <v>300</v>
-      </c>
-      <c r="R6" s="1">
-        <v>3000</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>2.7655103333333333</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1024</v>
       </c>
+      <c r="C7">
+        <v>0.466947</v>
+      </c>
+      <c r="D7">
+        <v>0.44181399999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.41415999999999997</v>
+      </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0.44097366666666665</v>
+      </c>
+      <c r="G7">
+        <v>1.2596270000000001</v>
+      </c>
+      <c r="H7">
+        <v>1.235546</v>
+      </c>
+      <c r="I7">
+        <v>1.195017</v>
       </c>
       <c r="J7" s="1">
-        <v>40</v>
-      </c>
-      <c r="N7" s="1">
-        <v>400</v>
-      </c>
-      <c r="R7" s="1">
-        <v>4000</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>1.2300633333333335</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2048</v>
       </c>
+      <c r="C8">
+        <v>0.17735999999999999</v>
+      </c>
       <c r="F8" s="1">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.17735999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.45817000000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>50</v>
-      </c>
-      <c r="N8" s="1">
-        <v>500</v>
-      </c>
-      <c r="R8" s="1">
-        <v>5000</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.45817000000000002</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>4096</v>
       </c>
-      <c r="F9" s="1">
-        <v>6</v>
+      <c r="F9" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9">
+        <v>0.40314299999999997</v>
       </c>
       <c r="J9" s="1">
-        <v>60</v>
-      </c>
-      <c r="N9" s="1">
-        <v>600</v>
-      </c>
-      <c r="R9" s="1">
-        <v>6000</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.40314299999999997</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="R9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/70%_Courswork/Q2/GraphData.xlsx
+++ b/70%_Courswork/Q2/GraphData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bensw\Work Docs\Comp3001\Comp3001-ParallelComputing\70%_Courswork\Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E9884D-6A51-4967-A38E-9909FB5C7FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC80A6F-E331-4DB8-AE3A-8BAAE316407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{76367C0C-1F62-41B7-B9D1-999A0F27DA4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76367C0C-1F62-41B7-B9D1-999A0F27DA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,31 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Implementations</t>
+    <t>NVIDIA GeForce GTX 1080 Ti</t>
   </si>
   <si>
-    <t>Imp1</t>
+    <t>Implementation 1</t>
   </si>
   <si>
-    <t>Imp2</t>
+    <t>Implementation 2</t>
   </si>
   <si>
-    <t>Imp3</t>
+    <t>Implementation 3</t>
   </si>
   <si>
-    <t>Imp4</t>
+    <t>Implementation  4</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +65,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,14 +100,331 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -131,11 +462,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Imp1</c:v>
+                  <c:v>Implementation 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -166,7 +497,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -196,30 +527,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$9</c:f>
+              <c:f>Sheet1!$F$4:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.9569559999999999</c:v>
+                  <c:v>2.0720313333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3151963333333332</c:v>
+                  <c:v>1.9042683333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8563070000000002</c:v>
+                  <c:v>1.7584766666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77478266666666673</c:v>
+                  <c:v>1.2861590000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44097366666666665</c:v>
+                  <c:v>0.72599400000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17735999999999999</c:v>
+                  <c:v>0.23930933333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.9000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -236,11 +567,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
+              <c:f>Sheet1!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Imp2</c:v>
+                  <c:v>Implementation 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -271,7 +602,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -301,30 +632,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$9</c:f>
+              <c:f>Sheet1!$J$4:$J$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.394015</c:v>
+                  <c:v>4.4144739999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1443660000000002</c:v>
+                  <c:v>10.90381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0759240000000001</c:v>
+                  <c:v>12.464624333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7655103333333333</c:v>
+                  <c:v>11.057413000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2300633333333335</c:v>
+                  <c:v>1.4251843333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45817000000000002</c:v>
+                  <c:v>1.0142930000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40314299999999997</c:v>
+                  <c:v>0.69433333333333325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -341,11 +672,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Imp3</c:v>
+                  <c:v>Implementation 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -376,7 +707,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -406,10 +737,31 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$9</c:f>
+              <c:f>Sheet1!$N$4:$N$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.1424396666666672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.271940666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.412675666666658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103.17419166666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125.59283366666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134.01422533333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.80356799999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -425,11 +777,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Imp4</c:v>
+                  <c:v>Implementation  4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -460,7 +812,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -490,10 +842,31 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$3:$R$9</c:f>
+              <c:f>Sheet1!$R$4:$R$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.5991316666666657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.204438333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.04654400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>372.1225316666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>642.2550736666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>914.25505866666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1144.7204703333334</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -505,7 +878,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -645,7 +1017,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1492735167"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="256"/>
         <c:minorUnit val="64"/>
@@ -653,6 +1025,7 @@
       <c:valAx>
         <c:axId val="1492735167"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -706,7 +1079,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>FLOPS(2N^3/nseconds)</a:t>
+                  <a:t>FLOPS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -740,7 +1113,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1430,8 +1803,8 @@
       <xdr:rowOff>10084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1009089</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>31376</xdr:rowOff>
     </xdr:to>
@@ -1459,6 +1832,39 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6ACB8B07-C088-40C0-A11B-969BBE1ECA34}" name="Table2" displayName="Table2" ref="B3:R10" headerRowCount="0">
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{0614373C-ECE8-4490-A859-4FED12213E68}" name="Column1" totalsRowLabel="Total" headerRowDxfId="5" dataDxfId="26" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E7F60D30-C65A-4C09-8F46-A9A3249EB404}" name="Column2" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{7318D0D4-045E-450F-9B55-FC9722D679F1}" name="Column3" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{33A172C5-96A0-403A-AADC-473F17783478}" name="Column4" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{66CD57AC-0BF0-4B00-9C93-6B759174B7DB}" name="Column5" headerRowDxfId="6" dataDxfId="22" totalsRowDxfId="1">
+      <calculatedColumnFormula>AVERAGE(C3:E3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E343E699-7157-493C-B4C7-7F5FC27BD94C}" name="Column6" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{EAB8313D-B693-4D08-BB09-AFCECF39800E}" name="Column7" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{E9A11560-FA8F-4643-99BA-EFFB6F1748EE}" name="Column8" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{66C6340D-396F-406F-A836-C8C925B2EBD2}" name="Column9" headerRowDxfId="7" dataDxfId="18" totalsRowDxfId="2">
+      <calculatedColumnFormula>AVERAGE(G3:I3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{0342142A-E6CC-4650-92AC-1FBCDBC686D1}" name="Column10" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{ED902C30-C47A-4AEA-BC29-4498B2E62BFC}" name="Column11" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{025F2B78-73E6-45F1-A99F-B111C3DE7A5C}" name="Column12" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{51502B9C-5569-41DF-858D-4C09DDDA29BB}" name="Column13" headerRowDxfId="8" dataDxfId="14" totalsRowDxfId="3">
+      <calculatedColumnFormula>AVERAGE(K3:M3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{024EC2A0-5FBD-49D9-88FC-70EB12648CB0}" name="Column14" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{9214769B-C3A4-4510-9367-16A1D88777EE}" name="Column15" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{FEB3543F-2B34-4250-BDFA-8FAD91EB0D4B}" name="Column16" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{105B3202-3F3C-41D7-9BA8-CE38708D9F90}" name="Column17" totalsRowFunction="count" headerRowDxfId="9" dataDxfId="10" totalsRowDxfId="4">
+      <calculatedColumnFormula>AVERAGE(O3:Q3)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1758,251 +2164,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CA7126-F057-41FD-971E-988FFAE2A47A}">
-  <dimension ref="B1:R9"/>
+  <dimension ref="B1:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="21" width="11" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="21" width="11" customWidth="1"/>
     <col min="24" max="24" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F1" t="s">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>5</v>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>64</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="5">
+        <v>2.0682100000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.077223</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.0706609999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <f>AVERAGE(C4:E4)</f>
+        <v>2.0720313333333333</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4.4128530000000001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4.4069180000000001</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4.4236510000000004</v>
+      </c>
+      <c r="J4" s="3">
+        <f>AVERAGE(G4:I4)</f>
+        <v>4.4144739999999993</v>
+      </c>
+      <c r="K4" s="5">
+        <v>7.1720670000000002</v>
+      </c>
+      <c r="L4" s="5">
+        <v>7.1843500000000002</v>
+      </c>
+      <c r="M4" s="5">
+        <v>7.0709020000000002</v>
+      </c>
+      <c r="N4" s="3">
+        <f>AVERAGE(K4:M4)</f>
+        <v>7.1424396666666672</v>
+      </c>
+      <c r="O4" s="5">
+        <v>7.653429</v>
+      </c>
+      <c r="P4" s="5">
+        <v>7.657038</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>7.4869279999999998</v>
+      </c>
+      <c r="R4" s="3">
+        <f>AVERAGE(O4:Q4)</f>
+        <v>7.5991316666666657</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>128</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.9006350000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.9030530000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.909117</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F10" si="0">AVERAGE(C5:E5)</f>
+        <v>1.9042683333333335</v>
+      </c>
+      <c r="G5" s="5">
+        <v>10.89719</v>
+      </c>
+      <c r="H5" s="5">
+        <v>10.897197</v>
+      </c>
+      <c r="I5" s="5">
+        <v>10.917043</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" ref="J5:J10" si="1">AVERAGE(G5:I5)</f>
+        <v>10.90381</v>
+      </c>
+      <c r="K5" s="5">
+        <v>34.327779999999997</v>
+      </c>
+      <c r="L5" s="5">
+        <v>34.153514000000001</v>
+      </c>
+      <c r="M5" s="5">
+        <v>34.334527999999999</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ref="N5:N10" si="2">AVERAGE(K5:M5)</f>
+        <v>34.271940666666666</v>
+      </c>
+      <c r="O5" s="5">
+        <v>47.186959000000002</v>
+      </c>
+      <c r="P5" s="5">
+        <v>47.752000000000002</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>46.674356000000003</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" ref="R5:R10" si="3">AVERAGE(O5:Q5)</f>
+        <v>47.204438333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>256</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.7572490000000001</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.7590889999999999</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.7590920000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7584766666666667</v>
+      </c>
+      <c r="G6" s="5">
+        <v>12.432249000000001</v>
+      </c>
+      <c r="H6" s="5">
+        <v>12.469208</v>
+      </c>
+      <c r="I6" s="5">
+        <v>12.492416</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>12.464624333333333</v>
+      </c>
+      <c r="K6" s="5">
+        <v>75.976611000000005</v>
+      </c>
+      <c r="L6" s="5">
+        <v>75.159671000000003</v>
+      </c>
+      <c r="M6" s="5">
+        <v>75.101744999999994</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="2"/>
+        <v>75.412675666666658</v>
+      </c>
+      <c r="O6" s="5">
+        <v>165.13041999999999</v>
+      </c>
+      <c r="P6" s="5">
+        <v>168.72594900000001</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>170.28326300000001</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="3"/>
+        <v>168.04654400000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>512</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.287223</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.282548</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.2887059999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2861590000000001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>11.051337</v>
+      </c>
+      <c r="H7" s="5">
+        <v>11.060446000000001</v>
+      </c>
+      <c r="I7" s="5">
+        <v>11.060456</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>11.057413000000002</v>
+      </c>
+      <c r="K7" s="5">
+        <v>102.52042400000001</v>
+      </c>
+      <c r="L7" s="5">
+        <v>103.168801</v>
+      </c>
+      <c r="M7" s="5">
+        <v>103.83335</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="2"/>
+        <v>103.17419166666667</v>
+      </c>
+      <c r="O7" s="5">
+        <v>367.628242</v>
+      </c>
+      <c r="P7" s="5">
+        <v>370.26047699999998</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>378.47887600000001</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="3"/>
+        <v>372.1225316666667</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.726267</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.72608600000000001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.72562899999999997</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72599400000000003</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.431187</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.4231240000000001</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.4212419999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4251843333333334</v>
+      </c>
+      <c r="K8" s="5">
+        <v>125.71998499999999</v>
+      </c>
+      <c r="L8" s="5">
+        <v>125.79273000000001</v>
+      </c>
+      <c r="M8" s="5">
+        <v>125.26578600000001</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="2"/>
+        <v>125.59283366666666</v>
+      </c>
+      <c r="O8" s="5">
+        <v>642.08390499999996</v>
+      </c>
+      <c r="P8" s="5">
+        <v>643.20193800000004</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>641.479378</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="3"/>
+        <v>642.2550736666667</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.24904999999999999</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.23103000000000001</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.237848</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23930933333333335</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.0072680000000001</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.011836</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.0237750000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0142930000000001</v>
+      </c>
+      <c r="K9" s="5">
+        <v>134.12217999999999</v>
+      </c>
+      <c r="L9" s="5">
+        <v>134.26350400000001</v>
+      </c>
+      <c r="M9" s="5">
+        <v>133.656992</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="2"/>
+        <v>134.01422533333331</v>
+      </c>
+      <c r="O9" s="5">
+        <v>915.79771100000005</v>
+      </c>
+      <c r="P9" s="5">
+        <v>911.73339099999998</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>915.23407399999996</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="3"/>
+        <v>914.25505866666663</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <f>AVERAGE(C10:E10)</f>
+        <v>1.9000000000000003E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.69433333333333325</v>
+      </c>
+      <c r="K10" s="5">
+        <v>129.996195</v>
+      </c>
+      <c r="L10" s="5">
+        <v>129.62044499999999</v>
+      </c>
+      <c r="M10" s="5">
+        <v>129.79406399999999</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="2"/>
+        <v>129.80356799999998</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1141.878498</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1143.4040649999999</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1148.8788480000001</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="3"/>
+        <v>1144.7204703333334</v>
+      </c>
+    </row>
+    <row r="25" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U26" s="1"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U27" s="1"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U28" s="1"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U29" s="1"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U30" s="1"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U31" s="1"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U32" s="1"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42">
         <v>2.8402099999999999</v>
       </c>
-      <c r="D3">
+      <c r="D42">
         <v>3.0388009999999999</v>
       </c>
-      <c r="E3">
+      <c r="E42">
         <v>2.991857</v>
       </c>
-      <c r="F3" s="1">
-        <f>AVERAGE(C3:E3)</f>
-        <v>2.9569559999999999</v>
-      </c>
-      <c r="G3">
+      <c r="G42">
         <v>3.3955929999999999</v>
       </c>
-      <c r="H3">
+      <c r="H42">
         <v>3.379051</v>
       </c>
-      <c r="I3">
+      <c r="I42">
         <v>3.4074010000000001</v>
       </c>
-      <c r="J3" s="1">
-        <f>AVERAGE(G3:I3)</f>
-        <v>3.394015</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>128</v>
-      </c>
-      <c r="C4">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43">
         <v>2.302835</v>
       </c>
-      <c r="D4">
+      <c r="D43">
         <v>2.3327840000000002</v>
       </c>
-      <c r="E4">
+      <c r="E43">
         <v>2.3099699999999999</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F9" si="0">AVERAGE(C4:E4)</f>
-        <v>2.3151963333333332</v>
-      </c>
-      <c r="G4">
+      <c r="G43">
         <v>3.1867740000000002</v>
       </c>
-      <c r="H4">
+      <c r="H43">
         <v>3.1797970000000002</v>
       </c>
-      <c r="I4">
+      <c r="I43">
         <v>3.0665269999999998</v>
       </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J9" si="1">AVERAGE(G4:I4)</f>
-        <v>3.1443660000000002</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>256</v>
-      </c>
-      <c r="C5">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44">
         <v>1.856484</v>
       </c>
-      <c r="D5">
+      <c r="D44">
         <v>1.852959</v>
       </c>
-      <c r="E5">
+      <c r="E44">
         <v>1.859478</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8563070000000002</v>
-      </c>
-      <c r="G5">
+      <c r="G44">
         <v>3.0457830000000001</v>
       </c>
-      <c r="H5">
+      <c r="H44">
         <v>3.0930620000000002</v>
       </c>
-      <c r="I5">
+      <c r="I44">
         <v>3.088927</v>
       </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0759240000000001</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>512</v>
-      </c>
-      <c r="C6">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45">
         <v>0.79907600000000001</v>
       </c>
-      <c r="D6">
+      <c r="D45">
         <v>0.755548</v>
       </c>
-      <c r="E6">
+      <c r="E45">
         <v>0.76972399999999996</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77478266666666673</v>
-      </c>
-      <c r="G6">
+      <c r="G45">
         <v>2.7539479999999998</v>
       </c>
-      <c r="H6">
+      <c r="H45">
         <v>2.7733050000000001</v>
       </c>
-      <c r="I6">
+      <c r="I45">
         <v>2.7692779999999999</v>
       </c>
-      <c r="J6" s="1">
-        <f t="shared" si="1"/>
-        <v>2.7655103333333333</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>1024</v>
-      </c>
-      <c r="C7">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46">
         <v>0.466947</v>
       </c>
-      <c r="D7">
+      <c r="D46">
         <v>0.44181399999999998</v>
       </c>
-      <c r="E7">
+      <c r="E46">
         <v>0.41415999999999997</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.44097366666666665</v>
-      </c>
-      <c r="G7">
+      <c r="G46">
         <v>1.2596270000000001</v>
       </c>
-      <c r="H7">
+      <c r="H46">
         <v>1.235546</v>
       </c>
-      <c r="I7">
+      <c r="I46">
         <v>1.195017</v>
       </c>
-      <c r="J7" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2300633333333335</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>2048</v>
-      </c>
-      <c r="C8">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47">
         <v>0.17735999999999999</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.17735999999999999</v>
-      </c>
-      <c r="G8">
+      <c r="G47">
         <v>0.45817000000000002</v>
       </c>
-      <c r="J8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.45817000000000002</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>4096</v>
-      </c>
-      <c r="F9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G48">
         <v>0.40314299999999997</v>
       </c>
-      <c r="J9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.40314299999999997</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="R9" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F3 R3 N3 J3" calculatedColumn="1"/>
+    <ignoredError sqref="F4 F5:F10" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/70%_Courswork/Q2/GraphData.xlsx
+++ b/70%_Courswork/Q2/GraphData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bensw\Work Docs\Comp3001\Comp3001-ParallelComputing\70%_Courswork\Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC80A6F-E331-4DB8-AE3A-8BAAE316407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5627769-E2AE-4FF8-97F4-B10FAD41FB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76367C0C-1F62-41B7-B9D1-999A0F27DA4C}"/>
+    <workbookView minimized="1" xWindow="-25290" yWindow="870" windowWidth="21600" windowHeight="11295" xr2:uid="{76367C0C-1F62-41B7-B9D1-999A0F27DA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Implementation 3</t>
   </si>
   <si>
-    <t>Implementation  4</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Implementation 4</t>
   </si>
 </sst>
 </file>
@@ -53,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -103,12 +103,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,6 +149,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -185,6 +213,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -221,6 +277,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -257,6 +341,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -293,118 +405,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -781,7 +781,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implementation  4</c:v>
+                  <c:v>Implementation 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1837,29 +1837,29 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6ACB8B07-C088-40C0-A11B-969BBE1ECA34}" name="Table2" displayName="Table2" ref="B3:R10" headerRowCount="0">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{0614373C-ECE8-4490-A859-4FED12213E68}" name="Column1" totalsRowLabel="Total" headerRowDxfId="5" dataDxfId="26" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{E7F60D30-C65A-4C09-8F46-A9A3249EB404}" name="Column2" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{7318D0D4-045E-450F-9B55-FC9722D679F1}" name="Column3" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{33A172C5-96A0-403A-AADC-473F17783478}" name="Column4" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{66CD57AC-0BF0-4B00-9C93-6B759174B7DB}" name="Column5" headerRowDxfId="6" dataDxfId="22" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{0614373C-ECE8-4490-A859-4FED12213E68}" name="Column1" totalsRowLabel="Total" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{E7F60D30-C65A-4C09-8F46-A9A3249EB404}" name="Column2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{7318D0D4-045E-450F-9B55-FC9722D679F1}" name="Column3" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{33A172C5-96A0-403A-AADC-473F17783478}" name="Column4" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{66CD57AC-0BF0-4B00-9C93-6B759174B7DB}" name="Column5" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>AVERAGE(C3:E3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E343E699-7157-493C-B4C7-7F5FC27BD94C}" name="Column6" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{EAB8313D-B693-4D08-BB09-AFCECF39800E}" name="Column7" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{E9A11560-FA8F-4643-99BA-EFFB6F1748EE}" name="Column8" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{66C6340D-396F-406F-A836-C8C925B2EBD2}" name="Column9" headerRowDxfId="7" dataDxfId="18" totalsRowDxfId="2">
+    <tableColumn id="6" xr3:uid="{E343E699-7157-493C-B4C7-7F5FC27BD94C}" name="Column6" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{EAB8313D-B693-4D08-BB09-AFCECF39800E}" name="Column7" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{E9A11560-FA8F-4643-99BA-EFFB6F1748EE}" name="Column8" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{66C6340D-396F-406F-A836-C8C925B2EBD2}" name="Column9" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>AVERAGE(G3:I3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0342142A-E6CC-4650-92AC-1FBCDBC686D1}" name="Column10" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{ED902C30-C47A-4AEA-BC29-4498B2E62BFC}" name="Column11" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{025F2B78-73E6-45F1-A99F-B111C3DE7A5C}" name="Column12" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{51502B9C-5569-41DF-858D-4C09DDDA29BB}" name="Column13" headerRowDxfId="8" dataDxfId="14" totalsRowDxfId="3">
+    <tableColumn id="10" xr3:uid="{0342142A-E6CC-4650-92AC-1FBCDBC686D1}" name="Column10" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{ED902C30-C47A-4AEA-BC29-4498B2E62BFC}" name="Column11" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{025F2B78-73E6-45F1-A99F-B111C3DE7A5C}" name="Column12" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{51502B9C-5569-41DF-858D-4C09DDDA29BB}" name="Column13" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>AVERAGE(K3:M3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{024EC2A0-5FBD-49D9-88FC-70EB12648CB0}" name="Column14" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{9214769B-C3A4-4510-9367-16A1D88777EE}" name="Column15" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{FEB3543F-2B34-4250-BDFA-8FAD91EB0D4B}" name="Column16" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{105B3202-3F3C-41D7-9BA8-CE38708D9F90}" name="Column17" totalsRowFunction="count" headerRowDxfId="9" dataDxfId="10" totalsRowDxfId="4">
+    <tableColumn id="14" xr3:uid="{024EC2A0-5FBD-49D9-88FC-70EB12648CB0}" name="Column14" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{9214769B-C3A4-4510-9367-16A1D88777EE}" name="Column15" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{FEB3543F-2B34-4250-BDFA-8FAD91EB0D4B}" name="Column16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{105B3202-3F3C-41D7-9BA8-CE38708D9F90}" name="Column17" totalsRowFunction="count" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>AVERAGE(O3:Q3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2185,98 +2185,98 @@
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>64</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>2.0682100000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>2.077223</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>2.0706609999999999</v>
       </c>
       <c r="F4" s="3">
         <f>AVERAGE(C4:E4)</f>
         <v>2.0720313333333333</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>4.4128530000000001</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>4.4069180000000001</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>4.4236510000000004</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE(G4:I4)</f>
         <v>4.4144739999999993</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>7.1720670000000002</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>7.1843500000000002</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>7.0709020000000002</v>
       </c>
       <c r="N4" s="3">
         <f>AVERAGE(K4:M4)</f>
         <v>7.1424396666666672</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>7.653429</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>7.657038</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>7.4869279999999998</v>
       </c>
       <c r="R4" s="3">
@@ -2288,52 +2288,52 @@
       <c r="B5" s="1">
         <v>128</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1.9006350000000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1.9030530000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1.909117</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F10" si="0">AVERAGE(C5:E5)</f>
+        <f t="shared" ref="F5:F9" si="0">AVERAGE(C5:E5)</f>
         <v>1.9042683333333335</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>10.89719</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>10.897197</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>10.917043</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" ref="J5:J10" si="1">AVERAGE(G5:I5)</f>
         <v>10.90381</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>34.327779999999997</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>34.153514000000001</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>34.334527999999999</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:N10" si="2">AVERAGE(K5:M5)</f>
         <v>34.271940666666666</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>47.186959000000002</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>47.752000000000002</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>46.674356000000003</v>
       </c>
       <c r="R5" s="3">
@@ -2345,52 +2345,52 @@
       <c r="B6" s="1">
         <v>256</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1.7572490000000001</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1.7590889999999999</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1.7590920000000001</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>1.7584766666666667</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>12.432249000000001</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>12.469208</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>12.492416</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
         <v>12.464624333333333</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>75.976611000000005</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>75.159671000000003</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>75.101744999999994</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="2"/>
         <v>75.412675666666658</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>165.13041999999999</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>168.72594900000001</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>170.28326300000001</v>
       </c>
       <c r="R6" s="3">
@@ -2402,52 +2402,52 @@
       <c r="B7" s="1">
         <v>512</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1.287223</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1.282548</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1.2887059999999999</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>1.2861590000000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>11.051337</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>11.060446000000001</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>11.060456</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>11.057413000000002</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>102.52042400000001</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>103.168801</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>103.83335</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
         <v>103.17419166666667</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>367.628242</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>370.26047699999998</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>378.47887600000001</v>
       </c>
       <c r="R7" s="3">
@@ -2459,52 +2459,52 @@
       <c r="B8" s="1">
         <v>1024</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.726267</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.72608600000000001</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.72562899999999997</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>0.72599400000000003</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>1.431187</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>1.4231240000000001</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>1.4212419999999999</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>1.4251843333333334</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>125.71998499999999</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>125.79273000000001</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>125.26578600000001</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="2"/>
         <v>125.59283366666666</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>642.08390499999996</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <v>643.20193800000004</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>641.479378</v>
       </c>
       <c r="R8" s="3">
@@ -2516,52 +2516,52 @@
       <c r="B9" s="1">
         <v>2048</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.24904999999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.23103000000000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.237848</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>0.23930933333333335</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>1.0072680000000001</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>1.011836</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>1.0237750000000001</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>1.0142930000000001</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>134.12217999999999</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>134.26350400000001</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>133.656992</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="2"/>
         <v>134.01422533333331</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <v>915.79771100000005</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <v>911.73339099999998</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <v>915.23407399999996</v>
       </c>
       <c r="R9" s="3">
@@ -2573,52 +2573,52 @@
       <c r="B10" s="1">
         <v>4096</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.02</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="F10" s="3">
         <f>AVERAGE(C10:E10)</f>
         <v>1.9000000000000003E-2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.70099999999999996</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.69399999999999995</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>0.69433333333333325</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>129.996195</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>129.62044499999999</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>129.79406399999999</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="2"/>
         <v>129.80356799999998</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <v>1141.878498</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>1143.4040649999999</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>1148.8788480000001</v>
       </c>
       <c r="R10" s="3">
